--- a/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg 11.12.25.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк заказа Mos prod Torg 11.12.25.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4783AC22-7E22-4466-95C1-58280F90967C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52039A44-C7B1-47D7-86FE-8F6C5634C0E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="машины" sheetId="21" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">машины!$A$9:$I$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">машины!$A$9:$I$104</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="115">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -175,12 +175,6 @@
     <t>МОЛОЧНЫЕ ПРЕМИУМ ПМ сос п/о мгс 0.6кг</t>
   </si>
   <si>
-    <t>МЯСНЫЕ Папа может сар б/о мгс 1*3_СНГ</t>
-  </si>
-  <si>
-    <t>ШПИКАЧКИ СОЧНЫЕ сар б/о мгс 1*3 Ашан 45с</t>
-  </si>
-  <si>
     <t>СЕРВЕЛАТ С БЕЛ.ГРИБАМИ в/к в/у 0.31кг</t>
   </si>
   <si>
@@ -221,9 +215,6 @@
   </si>
   <si>
     <t>СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0.33кг 8шт.</t>
-  </si>
-  <si>
-    <t>КЛАССИЧЕСКАЯ ПМ вар п/о 0.35 кг</t>
   </si>
   <si>
     <t>СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у</t>
@@ -283,13 +274,7 @@
     <t>СОЧНЫЕ ПМ сос п/о мгс 0.41кг_СНГ_50с</t>
   </si>
   <si>
-    <t>СОЧНЫЕ ПМ сос п/о мгс 1.5*4_А_50с</t>
-  </si>
-  <si>
     <t>СЕРВЕЛАТ КОПЧ.НА БУКЕ в/к в/у 0.35кг_СНГ</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ КАРЕЛЬСКИЙ ПМ вк в/у 0.28кг_СНГ</t>
   </si>
   <si>
     <t>СЕРВЕЛАТ ОХОТНИЧИЙ в/к в/у_СНГ</t>
@@ -354,13 +339,46 @@
   <si>
     <t>ЮБИЛЕЙНАЯ с/к в/у_Ашан</t>
   </si>
+  <si>
+    <t>ГОВЯЖЬЯ Папа может вар п/о</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0.28кг_СНГ</t>
+  </si>
+  <si>
+    <t>БОЯРСКАЯ ПМ п/к в/у 0.28кг_СНГ</t>
+  </si>
+  <si>
+    <t>АРОМАТНАЯ с/к с/н в/у 1/100_СНГ</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ КЛАССИЧЕСКИЕ сос п/о в/у 0.3кг</t>
+  </si>
+  <si>
+    <t>СОЧНЫЕ ПМ сос п/о мгс 1*6_СНГ</t>
+  </si>
+  <si>
+    <t>МЯСНЫЕ Папа может сар б/о мгс 1*3_Х5_45с</t>
+  </si>
+  <si>
+    <t>ШПИКАЧКИ СОЧНЫЕ сар б/о мгс 1*3_Ашан_45с</t>
+  </si>
+  <si>
+    <t>КЛАССИЧЕСКАЯ ПМ вар п/о 0.3кг 8шт_209к</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ КАРЕЛЬС.вк в/у 0.28кг_СНГ_209к</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="174" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -914,7 +932,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="15" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1022,11 +1040,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="SAPBEXstdItem" xfId="1"/>
-    <cellStyle name="SAPBEXstdItem 3" xfId="2"/>
+    <cellStyle name="SAPBEXstdItem" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="SAPBEXstdItem 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="3"/>
-    <cellStyle name="Обычный 3" xfId="4"/>
+    <cellStyle name="Обычный 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Обычный 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1618,15 +1636,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R1620"/>
+  <dimension ref="A1:R1626"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J99" sqref="J99"/>
+      <pane ySplit="9" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1654,7 +1672,7 @@
         <v>130500100</v>
       </c>
       <c r="E1" s="75" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F1" s="76"/>
       <c r="G1" s="76"/>
@@ -1678,12 +1696,14 @@
       <c r="C3" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="43"/>
+      <c r="D3" s="43">
+        <v>46017</v>
+      </c>
       <c r="E3" s="51" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="78" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G3" s="79"/>
       <c r="H3" s="79"/>
@@ -1813,7 +1833,7 @@
         <v>7231</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>19</v>
@@ -1823,7 +1843,7 @@
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="14">
-        <f>E11*0.35</f>
+        <f>E11*0.3</f>
         <v>0</v>
       </c>
       <c r="G11" s="14"/>
@@ -1877,7 +1897,7 @@
         <v>5247</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C13" s="62" t="s">
         <v>18</v>
@@ -1887,7 +1907,7 @@
       </c>
       <c r="E13" s="56"/>
       <c r="F13" s="14">
-        <f>E13*1</f>
+        <f t="shared" ref="F13:F14" si="1">E13</f>
         <v>0</v>
       </c>
       <c r="G13" s="14"/>
@@ -1908,7 +1928,7 @@
         <v>5246</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -1918,7 +1938,7 @@
       </c>
       <c r="E14" s="56"/>
       <c r="F14" s="14">
-        <f>E14*1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G14" s="14"/>
@@ -1939,7 +1959,7 @@
         <v>6325</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>19</v>
@@ -2004,7 +2024,7 @@
       </c>
       <c r="E17" s="56"/>
       <c r="F17" s="14">
-        <f>E17</f>
+        <f t="shared" ref="F17:F18" si="2">E17</f>
         <v>0</v>
       </c>
       <c r="G17" s="36"/>
@@ -2017,7 +2037,7 @@
         <v>4408</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>18</v>
@@ -2027,7 +2047,7 @@
       </c>
       <c r="E18" s="56"/>
       <c r="F18" s="14">
-        <f>E18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G18" s="36"/>
@@ -2040,7 +2060,7 @@
         <v>6345</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>19</v>
@@ -2118,7 +2138,7 @@
         <v>5851</v>
       </c>
       <c r="B22" s="64" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>18</v>
@@ -2128,7 +2148,7 @@
       </c>
       <c r="E22" s="56"/>
       <c r="F22" s="14">
-        <f>E22</f>
+        <f t="shared" ref="F22:F26" si="3">E22</f>
         <v>0</v>
       </c>
       <c r="G22" s="14"/>
@@ -2137,11 +2157,11 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="64" t="str">
-        <f t="shared" ref="A23:A28" si="1">RIGHT(D23,4)</f>
+        <f t="shared" ref="A23:A29" si="4">RIGHT(D23,4)</f>
         <v>4555</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>18</v>
@@ -2150,8 +2170,8 @@
         <v>1001010014555</v>
       </c>
       <c r="E23" s="56"/>
-      <c r="F23" s="71">
-        <f>E23</f>
+      <c r="F23" s="14">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G23" s="14"/>
@@ -2160,11 +2180,11 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6327</v>
       </c>
       <c r="B24" s="64" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>18</v>
@@ -2173,8 +2193,8 @@
         <v>1001010116327</v>
       </c>
       <c r="E24" s="56"/>
-      <c r="F24" s="71">
-        <f>E24</f>
+      <c r="F24" s="14">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G24" s="14"/>
@@ -2183,11 +2203,11 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6861</v>
       </c>
       <c r="B25" s="64" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>18</v>
@@ -2196,8 +2216,8 @@
         <v>1001015646861</v>
       </c>
       <c r="E25" s="56"/>
-      <c r="F25" s="71">
-        <f>E25</f>
+      <c r="F25" s="14">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G25" s="14"/>
@@ -2206,21 +2226,21 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="64" t="str">
-        <f t="shared" si="1"/>
-        <v>6268</v>
+        <f t="shared" si="4"/>
+        <v>6220</v>
       </c>
       <c r="B26" s="64" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" s="65">
-        <v>1001012426268</v>
+        <v>1001012426220</v>
       </c>
       <c r="E26" s="56"/>
-      <c r="F26" s="71">
-        <f>E26*0.4</f>
+      <c r="F26" s="14">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G26" s="14"/>
@@ -2229,103 +2249,103 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="64" t="str">
-        <f t="shared" si="1"/>
-        <v>6877</v>
+        <f t="shared" si="4"/>
+        <v>6268</v>
       </c>
       <c r="B27" s="64" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D27" s="65">
-        <v>1001015676877</v>
+        <v>1001012426268</v>
       </c>
       <c r="E27" s="56"/>
       <c r="F27" s="71">
-        <f>E27</f>
+        <f>E27*0.4</f>
         <v>0</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
       <c r="I27" s="16"/>
     </row>
-    <row r="28" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="64" t="str">
-        <f t="shared" si="1"/>
-        <v>6878</v>
+        <f t="shared" si="4"/>
+        <v>6877</v>
       </c>
       <c r="B28" s="64" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="65">
-        <v>1001015686878</v>
+        <v>1001015676877</v>
       </c>
       <c r="E28" s="56"/>
-      <c r="F28" s="71">
-        <f>E28</f>
+      <c r="F28" s="14">
+        <f t="shared" ref="F28:F29" si="5">E28</f>
         <v>0</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
       <c r="I28" s="16"/>
     </row>
-    <row r="29" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="3" t="s">
+    <row r="29" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="64" t="str">
+        <f t="shared" si="4"/>
+        <v>6878</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="65">
+        <v>1001015686878</v>
+      </c>
+      <c r="E29" s="56"/>
+      <c r="F29" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="16"/>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="35"/>
+      <c r="B30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-    </row>
-    <row r="30" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="64" t="str">
-        <f>RIGHT(D30,4)</f>
-        <v>6765</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="65">
-        <v>1001023696765</v>
-      </c>
-      <c r="E30" s="56"/>
-      <c r="F30" s="19">
-        <f>E30*0.36</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C30" s="18"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A31" s="64" t="str">
         <f>RIGHT(D31,4)</f>
-        <v>6768</v>
+        <v>6765</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C31" s="62" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="65">
-        <v>1001025176768</v>
+        <v>1001023696765</v>
       </c>
       <c r="E31" s="56"/>
       <c r="F31" s="19">
-        <f>E31*0.41</f>
+        <f>E31*0.36</f>
         <v>0</v>
       </c>
       <c r="G31" s="14"/>
@@ -2335,16 +2355,16 @@
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="64" t="str">
         <f>RIGHT(D32,4)</f>
-        <v>6770</v>
+        <v>6768</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C32" s="62" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="65">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="E32" s="56"/>
       <c r="F32" s="19">
@@ -2358,20 +2378,20 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="64" t="str">
         <f>RIGHT(D33,4)</f>
-        <v>6602</v>
-      </c>
-      <c r="B33" s="64" t="s">
-        <v>39</v>
+        <v>6770</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C33" s="62" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="65">
-        <v>1001021966602</v>
+        <v>1001025486770</v>
       </c>
       <c r="E33" s="56"/>
       <c r="F33" s="19">
-        <f>E33*0.35</f>
+        <f>E33*0.41</f>
         <v>0</v>
       </c>
       <c r="G33" s="14"/>
@@ -2380,21 +2400,21 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="64" t="str">
-        <f t="shared" ref="A34:A95" si="2">RIGHT(D34,4)</f>
-        <v>6713</v>
-      </c>
-      <c r="B34" s="67" t="s">
-        <v>38</v>
+        <f>RIGHT(D34,4)</f>
+        <v>6602</v>
+      </c>
+      <c r="B34" s="64" t="s">
+        <v>39</v>
       </c>
       <c r="C34" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="70">
-        <v>1001022246713</v>
+      <c r="D34" s="65">
+        <v>1001021966602</v>
       </c>
       <c r="E34" s="56"/>
       <c r="F34" s="19">
-        <f>E34*0.41</f>
+        <f>E34*0.35</f>
         <v>0</v>
       </c>
       <c r="G34" s="14"/>
@@ -2403,44 +2423,44 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>6240</v>
+        <f t="shared" ref="A35:A101" si="6">RIGHT(D35,4)</f>
+        <v>6713</v>
       </c>
       <c r="B35" s="67" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C35" s="62" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="70">
-        <v>1001022246240</v>
+        <v>1001022246713</v>
       </c>
       <c r="E35" s="56"/>
-      <c r="F35" s="14">
-        <f>E35*0.45</f>
+      <c r="F35" s="19">
+        <f>E35*0.41</f>
         <v>0</v>
       </c>
       <c r="G35" s="14"/>
-      <c r="H35" s="15"/>
+      <c r="H35" s="16"/>
       <c r="I35" s="16"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7151</v>
+        <f t="shared" si="6"/>
+        <v>6240</v>
       </c>
       <c r="B36" s="67" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="C36" s="62" t="s">
         <v>19</v>
       </c>
       <c r="D36" s="70">
-        <v>1001020837151</v>
+        <v>1001022246240</v>
       </c>
       <c r="E36" s="56"/>
       <c r="F36" s="14">
-        <f>E36*0.41</f>
+        <f>E36*0.45</f>
         <v>0</v>
       </c>
       <c r="G36" s="14"/>
@@ -2449,21 +2469,21 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>6854</v>
+        <f t="shared" si="6"/>
+        <v>7151</v>
       </c>
       <c r="B37" s="67" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="C37" s="62" t="s">
         <v>19</v>
       </c>
       <c r="D37" s="70">
-        <v>1001022656854</v>
+        <v>1001020837151</v>
       </c>
       <c r="E37" s="56"/>
       <c r="F37" s="14">
-        <f>E37*0.6</f>
+        <f>E37*0.41</f>
         <v>0</v>
       </c>
       <c r="G37" s="14"/>
@@ -2472,44 +2492,44 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7075</v>
+        <f t="shared" si="6"/>
+        <v>6854</v>
       </c>
       <c r="B38" s="67" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="C38" s="62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D38" s="70">
-        <v>1001022657075</v>
+        <v>1001022656854</v>
       </c>
       <c r="E38" s="56"/>
       <c r="F38" s="14">
-        <f>E38</f>
+        <f>E38*0.6</f>
         <v>0</v>
       </c>
       <c r="G38" s="14"/>
-      <c r="H38" s="16"/>
+      <c r="H38" s="15"/>
       <c r="I38" s="16"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>5819</v>
-      </c>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+        <f t="shared" si="6"/>
+        <v>7075</v>
+      </c>
+      <c r="B39" s="67" t="s">
+        <v>78</v>
       </c>
       <c r="C39" s="62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39" s="70">
-        <v>1001022725819</v>
+        <v>1001022657075</v>
       </c>
       <c r="E39" s="56"/>
       <c r="F39" s="14">
-        <f>E39*0.4</f>
+        <f>E39</f>
         <v>0</v>
       </c>
       <c r="G39" s="14"/>
@@ -2517,18 +2537,18 @@
       <c r="I39" s="16"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="72" t="str">
-        <f t="shared" si="2"/>
-        <v>7255</v>
-      </c>
-      <c r="B40" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="74" t="s">
+      <c r="A40" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>5819</v>
+      </c>
+      <c r="B40" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="73">
-        <v>1001025507255</v>
+      <c r="D40" s="70">
+        <v>1001022725819</v>
       </c>
       <c r="E40" s="56"/>
       <c r="F40" s="14">
@@ -2540,22 +2560,22 @@
       <c r="I40" s="16"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7271</v>
-      </c>
-      <c r="B41" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="70">
-        <v>1001025507271</v>
+      <c r="A41" s="72" t="str">
+        <f t="shared" si="6"/>
+        <v>7255</v>
+      </c>
+      <c r="B41" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="73">
+        <v>1001025507255</v>
       </c>
       <c r="E41" s="56"/>
       <c r="F41" s="14">
-        <f>E41*1</f>
+        <f>E41*0.4</f>
         <v>0</v>
       </c>
       <c r="G41" s="14"/>
@@ -2563,21 +2583,22 @@
       <c r="I41" s="16"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="66">
-        <v>6870</v>
-      </c>
-      <c r="B42" s="64" t="s">
-        <v>40</v>
+      <c r="A42" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>7271</v>
+      </c>
+      <c r="B42" s="67" t="s">
+        <v>99</v>
       </c>
       <c r="C42" s="62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D42" s="70">
-        <v>1001022466726</v>
+        <v>1001025507271</v>
       </c>
       <c r="E42" s="56"/>
       <c r="F42" s="14">
-        <f>E42*0.41</f>
+        <f>E42</f>
         <v>0</v>
       </c>
       <c r="G42" s="14"/>
@@ -2586,20 +2607,20 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="66">
-        <v>6759</v>
-      </c>
-      <c r="B43" s="67" t="s">
-        <v>69</v>
+        <v>6870</v>
+      </c>
+      <c r="B43" s="64" t="s">
+        <v>40</v>
       </c>
       <c r="C43" s="62" t="s">
         <v>19</v>
       </c>
       <c r="D43" s="70">
-        <v>1001020836759</v>
+        <v>1001022466726</v>
       </c>
       <c r="E43" s="56"/>
       <c r="F43" s="14">
-        <f>E43*0.4</f>
+        <f>E43*0.41</f>
         <v>0</v>
       </c>
       <c r="G43" s="14"/>
@@ -2607,22 +2628,21 @@
       <c r="I43" s="16"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7064</v>
-      </c>
-      <c r="B44" s="67" t="s">
-        <v>83</v>
+      <c r="A44" s="66">
+        <v>6870</v>
+      </c>
+      <c r="B44" s="64" t="s">
+        <v>109</v>
       </c>
       <c r="C44" s="62" t="s">
         <v>19</v>
       </c>
       <c r="D44" s="70">
-        <v>1001022377064</v>
+        <v>1001024976616</v>
       </c>
       <c r="E44" s="56"/>
       <c r="F44" s="14">
-        <f>E44*0.35</f>
+        <f>E44*0.3</f>
         <v>0</v>
       </c>
       <c r="G44" s="14"/>
@@ -2630,22 +2650,21 @@
       <c r="I44" s="16"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7067</v>
+      <c r="A45" s="66">
+        <v>6759</v>
       </c>
       <c r="B45" s="67" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C45" s="62" t="s">
         <v>19</v>
       </c>
       <c r="D45" s="70">
-        <v>1001022377067</v>
+        <v>1001020836759</v>
       </c>
       <c r="E45" s="56"/>
       <c r="F45" s="14">
-        <f>E45*0.41</f>
+        <f>E45*0.4</f>
         <v>0</v>
       </c>
       <c r="G45" s="14"/>
@@ -2654,21 +2673,21 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7070</v>
+        <f t="shared" si="6"/>
+        <v>7064</v>
       </c>
       <c r="B46" s="67" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C46" s="62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D46" s="70">
-        <v>1001022377070</v>
+        <v>1001022377064</v>
       </c>
       <c r="E46" s="56"/>
       <c r="F46" s="14">
-        <f>E46</f>
+        <f>E46*0.35</f>
         <v>0</v>
       </c>
       <c r="G46" s="14"/>
@@ -2677,172 +2696,172 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>6303</v>
+        <f t="shared" si="6"/>
+        <v>7067</v>
       </c>
       <c r="B47" s="67" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C47" s="62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D47" s="70">
-        <v>1001022726303</v>
+        <v>1001022377067</v>
       </c>
       <c r="E47" s="56"/>
       <c r="F47" s="14">
-        <f>E47*1</f>
+        <f>E47*0.41</f>
         <v>0</v>
       </c>
-      <c r="G47" s="26"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7244</v>
+        <f t="shared" si="6"/>
+        <v>7070</v>
       </c>
       <c r="B48" s="67" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C48" s="62" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="70">
-        <v>1001022557244</v>
+        <v>1001022377070</v>
       </c>
       <c r="E48" s="56"/>
       <c r="F48" s="14">
-        <f>E48*1</f>
+        <f t="shared" ref="F48:F51" si="7">E48</f>
         <v>0</v>
       </c>
-      <c r="G48" s="26"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>6254</v>
-      </c>
-      <c r="B49" s="64" t="s">
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>6303</v>
+      </c>
+      <c r="B49" s="67" t="s">
+        <v>60</v>
       </c>
       <c r="C49" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="65">
-        <v>1001022556254</v>
+      <c r="D49" s="70">
+        <v>1001022726303</v>
       </c>
       <c r="E49" s="56"/>
       <c r="F49" s="14">
-        <f>E49*1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G49" s="26"/>
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
     </row>
-    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>6837</v>
-      </c>
-      <c r="B50" s="64" t="s">
-        <v>58</v>
+        <f t="shared" si="6"/>
+        <v>7244</v>
+      </c>
+      <c r="B50" s="67" t="s">
+        <v>95</v>
       </c>
       <c r="C50" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="65">
-        <v>1001022556837</v>
+        <v>18</v>
+      </c>
+      <c r="D50" s="70">
+        <v>1001022557244</v>
       </c>
       <c r="E50" s="56"/>
       <c r="F50" s="14">
-        <f>E50*0.4</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G50" s="26"/>
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
-      <c r="B51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-    </row>
-    <row r="52" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>6254</v>
+      </c>
+      <c r="B51" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="65">
+        <v>1001022556254</v>
+      </c>
+      <c r="E51" s="56"/>
+      <c r="F51" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="26"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+    </row>
+    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>6549</v>
+        <f t="shared" si="6"/>
+        <v>6837</v>
       </c>
       <c r="B52" s="64" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C52" s="62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D52" s="65">
-        <v>1001032736549</v>
+        <v>1001022556837</v>
       </c>
       <c r="E52" s="56"/>
       <c r="F52" s="14">
-        <f>E52</f>
+        <f>E52*0.4</f>
         <v>0</v>
       </c>
-      <c r="G52" s="14"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>6609</v>
-      </c>
-      <c r="B53" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="C53" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="70">
-        <v>1001033856609</v>
-      </c>
-      <c r="E53" s="56"/>
-      <c r="F53" s="14">
-        <f>E53*0.4</f>
-        <v>0</v>
-      </c>
-      <c r="G53" s="14"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G52" s="26"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="35"/>
+      <c r="B53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+    </row>
+    <row r="54" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A54" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7059</v>
-      </c>
-      <c r="B54" s="67" t="s">
-        <v>41</v>
+        <f t="shared" si="6"/>
+        <v>6549</v>
+      </c>
+      <c r="B54" s="64" t="s">
+        <v>111</v>
       </c>
       <c r="C54" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="70">
-        <v>1001035277059</v>
+      <c r="D54" s="65">
+        <v>1001032736549</v>
       </c>
       <c r="E54" s="56"/>
       <c r="F54" s="14">
-        <f>E54*0.3</f>
+        <f>E54</f>
         <v>0</v>
       </c>
       <c r="G54" s="14"/>
@@ -2851,21 +2870,21 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7058</v>
+        <f t="shared" si="6"/>
+        <v>6609</v>
       </c>
       <c r="B55" s="67" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="C55" s="62" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="70">
-        <v>1001035277058</v>
+        <v>1001033856609</v>
       </c>
       <c r="E55" s="56"/>
       <c r="F55" s="14">
-        <f>E55</f>
+        <f>E55*0.4</f>
         <v>0</v>
       </c>
       <c r="G55" s="14"/>
@@ -2874,17 +2893,17 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>6548</v>
-      </c>
-      <c r="B56" s="64" t="s">
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>7059</v>
+      </c>
+      <c r="B56" s="67" t="s">
+        <v>41</v>
       </c>
       <c r="C56" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="65">
-        <v>1001031076548</v>
+      <c r="D56" s="70">
+        <v>1001035277059</v>
       </c>
       <c r="E56" s="56"/>
       <c r="F56" s="14">
@@ -2895,210 +2914,210 @@
       <c r="H56" s="23"/>
       <c r="I56" s="23"/>
     </row>
-    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>5698</v>
-      </c>
-      <c r="B57" s="64" t="s">
-        <v>59</v>
+        <f t="shared" si="6"/>
+        <v>7058</v>
+      </c>
+      <c r="B57" s="67" t="s">
+        <v>42</v>
       </c>
       <c r="C57" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="65">
-        <v>1001034065698</v>
+      <c r="D57" s="70">
+        <v>1001035277058</v>
       </c>
       <c r="E57" s="56"/>
       <c r="F57" s="14">
         <f>E57</f>
         <v>0</v>
       </c>
-      <c r="G57" s="26"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-    </row>
-    <row r="58" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="35"/>
-      <c r="B58" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-    </row>
-    <row r="59" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="G57" s="14"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>6548</v>
+      </c>
+      <c r="B58" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="65">
+        <v>1001031076548</v>
+      </c>
+      <c r="E58" s="56"/>
+      <c r="F58" s="14">
+        <f t="shared" ref="F58:F59" si="8">E58</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="14"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+    </row>
+    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7174</v>
-      </c>
-      <c r="B59" s="67" t="s">
-        <v>91</v>
+        <f t="shared" si="6"/>
+        <v>5698</v>
+      </c>
+      <c r="B59" s="64" t="s">
+        <v>57</v>
       </c>
       <c r="C59" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" s="70">
-        <v>1001302277174</v>
+        <v>18</v>
+      </c>
+      <c r="D59" s="65">
+        <v>1001034065698</v>
       </c>
       <c r="E59" s="56"/>
       <c r="F59" s="14">
-        <f>E59*0.28</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G59" s="14"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7241</v>
-      </c>
-      <c r="B60" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="C60" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" s="70">
-        <v>1001303107241</v>
-      </c>
-      <c r="E60" s="56"/>
-      <c r="F60" s="14">
-        <f>E60*0.28</f>
-        <v>0</v>
-      </c>
-      <c r="G60" s="14"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-    </row>
-    <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G59" s="26"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="35"/>
+      <c r="B60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+    </row>
+    <row r="61" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A61" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7176</v>
+        <f t="shared" si="6"/>
+        <v>7174</v>
       </c>
       <c r="B61" s="67" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C61" s="62" t="s">
         <v>19</v>
       </c>
       <c r="D61" s="70">
-        <v>1001302347176</v>
+        <v>1001302277174</v>
       </c>
       <c r="E61" s="56"/>
       <c r="F61" s="14">
-        <f>E61*0.35</f>
+        <f>E61*0.28</f>
         <v>0</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="16"/>
       <c r="I61" s="16"/>
     </row>
-    <row r="62" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="35"/>
-      <c r="B62" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-    </row>
-    <row r="63" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>7332</v>
+      </c>
+      <c r="B62" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="70">
+        <v>1001301777332</v>
+      </c>
+      <c r="E62" s="56"/>
+      <c r="F62" s="14">
+        <f>E62*0.28</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="14"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7158</v>
+        <f t="shared" si="6"/>
+        <v>7241</v>
       </c>
       <c r="B63" s="67" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C63" s="62" t="s">
         <v>19</v>
       </c>
       <c r="D63" s="70">
-        <v>1001304237158</v>
+        <v>1001303107241</v>
       </c>
       <c r="E63" s="56"/>
       <c r="F63" s="14">
-        <f>E63*0.35</f>
+        <f>E63*0.28</f>
         <v>0</v>
       </c>
-      <c r="G63" s="19"/>
+      <c r="G63" s="14"/>
       <c r="H63" s="16"/>
       <c r="I63" s="16"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7159</v>
+        <f t="shared" si="6"/>
+        <v>7176</v>
       </c>
       <c r="B64" s="67" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C64" s="62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D64" s="70">
-        <v>1001304237159</v>
+        <v>1001302347176</v>
       </c>
       <c r="E64" s="56"/>
       <c r="F64" s="14">
-        <f>E64*1</f>
+        <f>E64*0.35</f>
         <v>0</v>
       </c>
-      <c r="G64" s="19"/>
+      <c r="G64" s="14"/>
       <c r="H64" s="16"/>
       <c r="I64" s="16"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7230</v>
-      </c>
-      <c r="B65" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="C65" s="62" t="s">
+    <row r="65" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="35"/>
+      <c r="B65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+    </row>
+    <row r="66" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>7158</v>
+      </c>
+      <c r="B66" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="70">
-        <v>1001304507230</v>
-      </c>
-      <c r="E65" s="56"/>
-      <c r="F65" s="14">
-        <f>E65*0.28</f>
-        <v>0</v>
-      </c>
-      <c r="G65" s="19"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>6790</v>
-      </c>
-      <c r="B66" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="C66" s="62" t="s">
-        <v>18</v>
-      </c>
       <c r="D66" s="70">
-        <v>1001300366790</v>
+        <v>1001304237158</v>
       </c>
       <c r="E66" s="56"/>
       <c r="F66" s="14">
-        <f>E66*1</f>
+        <f>E66*0.35</f>
         <v>0</v>
       </c>
       <c r="G66" s="19"/>
@@ -3107,21 +3126,21 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>6566</v>
+        <f t="shared" si="6"/>
+        <v>7159</v>
       </c>
       <c r="B67" s="67" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C67" s="62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D67" s="70">
-        <v>1001305306566</v>
+        <v>1001304237159</v>
       </c>
       <c r="E67" s="56"/>
       <c r="F67" s="14">
-        <f>E67*0.31</f>
+        <f>E67</f>
         <v>0</v>
       </c>
       <c r="G67" s="19"/>
@@ -3130,719 +3149,806 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7238</v>
+        <f t="shared" si="6"/>
+        <v>7230</v>
       </c>
       <c r="B68" s="67" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="C68" s="62" t="s">
         <v>19</v>
       </c>
       <c r="D68" s="70">
-        <v>1001305197238</v>
+        <v>1001304507230</v>
       </c>
       <c r="E68" s="56"/>
       <c r="F68" s="14">
-        <f>E68*0.31</f>
+        <f>E68*0.28</f>
         <v>0</v>
       </c>
-      <c r="G68" s="14"/>
-      <c r="H68" s="15"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="16"/>
       <c r="I68" s="16"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>6565</v>
+        <f t="shared" si="6"/>
+        <v>7333</v>
       </c>
       <c r="B69" s="67" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="C69" s="62" t="s">
         <v>19</v>
       </c>
       <c r="D69" s="70">
-        <v>1001305316565</v>
+        <v>1001303987333</v>
       </c>
       <c r="E69" s="56"/>
       <c r="F69" s="14">
-        <f>E69*0.31</f>
+        <f>E69*0.28</f>
         <v>0</v>
       </c>
-      <c r="G69" s="14"/>
+      <c r="G69" s="19"/>
       <c r="H69" s="16"/>
       <c r="I69" s="16"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7162</v>
+        <f t="shared" si="6"/>
+        <v>6790</v>
       </c>
       <c r="B70" s="67" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C70" s="62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D70" s="70">
-        <v>1001303987162</v>
+        <v>1001300366790</v>
       </c>
       <c r="E70" s="56"/>
       <c r="F70" s="14">
-        <f>E70*0.35</f>
+        <f>E70</f>
         <v>0</v>
       </c>
-      <c r="G70" s="14"/>
-      <c r="H70" s="15"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="16"/>
       <c r="I70" s="16"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7165</v>
+        <f t="shared" si="6"/>
+        <v>6566</v>
       </c>
       <c r="B71" s="67" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="C71" s="62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D71" s="70">
-        <v>1001303987165</v>
+        <v>1001305306566</v>
       </c>
       <c r="E71" s="56"/>
       <c r="F71" s="14">
-        <f>E71*1</f>
+        <f>E71*0.31</f>
         <v>0</v>
       </c>
-      <c r="G71" s="14"/>
-      <c r="H71" s="22"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="16"/>
       <c r="I71" s="16"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>6698</v>
+        <f t="shared" si="6"/>
+        <v>7238</v>
       </c>
       <c r="B72" s="67" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="C72" s="62" t="s">
         <v>19</v>
       </c>
       <c r="D72" s="70">
-        <v>1001301876698</v>
+        <v>1001305197238</v>
       </c>
       <c r="E72" s="56"/>
       <c r="F72" s="14">
-        <f>E72*0.35</f>
+        <f>E72*0.31</f>
         <v>0</v>
       </c>
       <c r="G72" s="14"/>
       <c r="H72" s="15"/>
       <c r="I72" s="16"/>
     </row>
-    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>5607</v>
+        <f t="shared" si="6"/>
+        <v>6565</v>
       </c>
       <c r="B73" s="67" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C73" s="62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D73" s="70">
-        <v>1001051875607</v>
+        <v>1001305316565</v>
       </c>
       <c r="E73" s="56"/>
       <c r="F73" s="14">
-        <f>E73*1</f>
+        <f>E73*0.31</f>
         <v>0</v>
       </c>
       <c r="G73" s="14"/>
-      <c r="H73" s="15"/>
+      <c r="H73" s="16"/>
       <c r="I73" s="16"/>
     </row>
-    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>6787</v>
+        <f t="shared" si="6"/>
+        <v>7162</v>
       </c>
       <c r="B74" s="67" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="C74" s="62" t="s">
         <v>19</v>
       </c>
       <c r="D74" s="70">
-        <v>1001300456787</v>
+        <v>1001303987162</v>
       </c>
       <c r="E74" s="56"/>
       <c r="F74" s="14">
-        <f>E74*0.33</f>
+        <f>E74*0.35</f>
         <v>0</v>
       </c>
-      <c r="G74" s="26"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="24"/>
-    </row>
-    <row r="75" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G74" s="14"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="16"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>6946</v>
+        <f t="shared" si="6"/>
+        <v>7165</v>
       </c>
       <c r="B75" s="67" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C75" s="62" t="s">
         <v>18</v>
       </c>
       <c r="D75" s="70">
-        <v>1001300456946</v>
+        <v>1001303987165</v>
       </c>
       <c r="E75" s="56"/>
       <c r="F75" s="14">
         <f>E75</f>
         <v>0</v>
       </c>
-      <c r="G75" s="26"/>
-      <c r="H75" s="63"/>
-      <c r="I75" s="24"/>
-    </row>
-    <row r="76" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="35"/>
-      <c r="B76" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="57"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-    </row>
-    <row r="77" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="G75" s="14"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="16"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>6698</v>
+      </c>
+      <c r="B76" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="70">
+        <v>1001301876698</v>
+      </c>
+      <c r="E76" s="56"/>
+      <c r="F76" s="14">
+        <f>E76*0.35</f>
+        <v>0</v>
+      </c>
+      <c r="G76" s="14"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="16"/>
+    </row>
+    <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>5738</v>
-      </c>
-      <c r="B77" s="64" t="s">
-        <v>34</v>
+        <f t="shared" si="6"/>
+        <v>5607</v>
+      </c>
+      <c r="B77" s="67" t="s">
+        <v>85</v>
       </c>
       <c r="C77" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" s="65">
-        <v>1001061975738</v>
+        <v>18</v>
+      </c>
+      <c r="D77" s="70">
+        <v>1001051875607</v>
       </c>
       <c r="E77" s="56"/>
       <c r="F77" s="14">
-        <f>E77*0.25</f>
+        <f>E77</f>
         <v>0</v>
       </c>
       <c r="G77" s="14"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H77" s="15"/>
+      <c r="I77" s="16"/>
+    </row>
+    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>5708</v>
+        <f t="shared" si="6"/>
+        <v>6787</v>
       </c>
       <c r="B78" s="67" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C78" s="62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D78" s="70">
-        <v>1001063145708</v>
+        <v>1001300456787</v>
       </c>
       <c r="E78" s="56"/>
       <c r="F78" s="14">
-        <f>E78*1</f>
+        <f>E78*0.33</f>
         <v>0</v>
       </c>
-      <c r="G78" s="14"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G78" s="26"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="24"/>
+    </row>
+    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>4993</v>
+        <f t="shared" si="6"/>
+        <v>6807</v>
       </c>
       <c r="B79" s="67" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="C79" s="62" t="s">
         <v>19</v>
       </c>
       <c r="D79" s="70">
-        <v>1001060764993</v>
+        <v>1001300366807</v>
       </c>
       <c r="E79" s="56"/>
       <c r="F79" s="14">
-        <f>E79*0.5</f>
+        <f>E79*0.33</f>
         <v>0</v>
       </c>
-      <c r="G79" s="14"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G79" s="26"/>
+      <c r="H79" s="63"/>
+      <c r="I79" s="24"/>
+    </row>
+    <row r="80" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>6453</v>
+        <f t="shared" si="6"/>
+        <v>6946</v>
       </c>
       <c r="B80" s="67" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C80" s="62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D80" s="70">
-        <v>1001202506453</v>
+        <v>1001300456946</v>
       </c>
       <c r="E80" s="56"/>
       <c r="F80" s="14">
-        <f>E80*0.5</f>
+        <f>E80</f>
         <v>0</v>
       </c>
-      <c r="G80" s="14"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="20"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>4117</v>
-      </c>
-      <c r="B81" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="C81" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D81" s="70">
-        <v>1001062504117</v>
-      </c>
-      <c r="E81" s="56"/>
-      <c r="F81" s="14">
-        <f>E81</f>
-        <v>0</v>
-      </c>
-      <c r="G81" s="14"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="20"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G80" s="26"/>
+      <c r="H80" s="63"/>
+      <c r="I80" s="24"/>
+    </row>
+    <row r="81" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="35"/>
+      <c r="B81" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="57"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+    </row>
+    <row r="82" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A82" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>5681</v>
-      </c>
-      <c r="B82" s="67" t="s">
-        <v>36</v>
+        <f t="shared" si="6"/>
+        <v>5738</v>
+      </c>
+      <c r="B82" s="64" t="s">
+        <v>34</v>
       </c>
       <c r="C82" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D82" s="70">
-        <v>1001190765681</v>
+      <c r="D82" s="65">
+        <v>1001061975738</v>
       </c>
       <c r="E82" s="56"/>
       <c r="F82" s="14">
-        <f>E82*0.15</f>
+        <f>E82*0.25</f>
         <v>0</v>
       </c>
       <c r="G82" s="14"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>5739</v>
+        <f t="shared" si="6"/>
+        <v>5708</v>
       </c>
       <c r="B83" s="67" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C83" s="62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D83" s="70">
-        <v>1001062475739</v>
+        <v>1001063145708</v>
       </c>
       <c r="E83" s="56"/>
       <c r="F83" s="14">
-        <f>E83*0.25</f>
+        <f>E83</f>
         <v>0</v>
       </c>
       <c r="G83" s="14"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="24"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>3582</v>
-      </c>
-      <c r="B84" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="C84" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="D84" s="73">
-        <v>1001061973582</v>
+        <f t="shared" si="6"/>
+        <v>4993</v>
+      </c>
+      <c r="B84" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="70">
+        <v>1001060764993</v>
       </c>
       <c r="E84" s="56"/>
       <c r="F84" s="14">
-        <f>E84*1</f>
+        <f>E84*0.25</f>
         <v>0</v>
       </c>
-      <c r="G84" s="26"/>
-      <c r="H84" s="63"/>
-      <c r="I84" s="24"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>3970</v>
-      </c>
-      <c r="B85" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="C85" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="D85" s="73">
-        <v>1001062473970</v>
+        <f t="shared" si="6"/>
+        <v>6453</v>
+      </c>
+      <c r="B85" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="C85" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="70">
+        <v>1001202506453</v>
       </c>
       <c r="E85" s="56"/>
       <c r="F85" s="14">
-        <f>E85*1</f>
+        <f>E85*0.1</f>
         <v>0</v>
       </c>
-      <c r="G85" s="26"/>
-      <c r="H85" s="63"/>
-      <c r="I85" s="24"/>
-    </row>
-    <row r="86" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G85" s="14"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>6835</v>
-      </c>
-      <c r="B86" s="64" t="s">
-        <v>60</v>
+        <f t="shared" si="6"/>
+        <v>5179</v>
+      </c>
+      <c r="B86" s="67" t="s">
+        <v>108</v>
       </c>
       <c r="C86" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D86" s="65">
-        <v>1001203146835</v>
+      <c r="D86" s="70">
+        <v>1001191975179</v>
       </c>
       <c r="E86" s="56"/>
       <c r="F86" s="14">
         <f>E86*0.1</f>
         <v>0</v>
       </c>
-      <c r="G86" s="26"/>
-      <c r="H86" s="63"/>
-      <c r="I86" s="24"/>
-    </row>
-    <row r="87" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="35"/>
-      <c r="B87" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="57"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
-    </row>
-    <row r="88" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="G86" s="14"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>4117</v>
+      </c>
+      <c r="B87" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="C87" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="70">
+        <v>1001062504117</v>
+      </c>
+      <c r="E87" s="56"/>
+      <c r="F87" s="14">
+        <f>E87</f>
+        <v>0</v>
+      </c>
+      <c r="G87" s="14"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="20"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>3215</v>
-      </c>
-      <c r="B88" s="64" t="s">
-        <v>56</v>
+        <f t="shared" si="6"/>
+        <v>5681</v>
+      </c>
+      <c r="B88" s="67" t="s">
+        <v>36</v>
       </c>
       <c r="C88" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D88" s="65">
-        <v>1001094053215</v>
+      <c r="D88" s="70">
+        <v>1001190765681</v>
       </c>
       <c r="E88" s="56"/>
       <c r="F88" s="14">
-        <f>E88</f>
+        <f>E88*0.15</f>
         <v>0</v>
       </c>
       <c r="G88" s="14"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="24"/>
-    </row>
-    <row r="89" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H88" s="16"/>
+      <c r="I88" s="16"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>5452</v>
-      </c>
-      <c r="B89" s="64" t="s">
-        <v>57</v>
+        <f t="shared" si="6"/>
+        <v>5739</v>
+      </c>
+      <c r="B89" s="67" t="s">
+        <v>35</v>
       </c>
       <c r="C89" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D89" s="65">
-        <v>1001092485452</v>
+        <v>19</v>
+      </c>
+      <c r="D89" s="70">
+        <v>1001062475739</v>
       </c>
       <c r="E89" s="56"/>
       <c r="F89" s="14">
-        <f>E89*0.4</f>
+        <f>E89*0.25</f>
         <v>0</v>
       </c>
       <c r="G89" s="14"/>
       <c r="H89" s="15"/>
       <c r="I89" s="24"/>
     </row>
-    <row r="90" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="57"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="21"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
-    </row>
-    <row r="91" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>3582</v>
+      </c>
+      <c r="B90" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="C90" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="73">
+        <v>1001061973582</v>
+      </c>
+      <c r="E90" s="56"/>
+      <c r="F90" s="14">
+        <f t="shared" ref="F90:F91" si="9">E90</f>
+        <v>0</v>
+      </c>
+      <c r="G90" s="26"/>
+      <c r="H90" s="63"/>
+      <c r="I90" s="24"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>5074</v>
-      </c>
-      <c r="B91" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="C91" s="62" t="s">
+        <f t="shared" si="6"/>
+        <v>3970</v>
+      </c>
+      <c r="B91" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="C91" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="D91" s="70">
-        <v>1001080345074</v>
+      <c r="D91" s="73">
+        <v>1001062473970</v>
       </c>
       <c r="E91" s="56"/>
       <c r="F91" s="14">
-        <f>E91*0.3</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G91" s="14"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="16"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G91" s="26"/>
+      <c r="H91" s="63"/>
+      <c r="I91" s="24"/>
+    </row>
+    <row r="92" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>6207</v>
-      </c>
-      <c r="B92" s="67" t="s">
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>6835</v>
+      </c>
+      <c r="B92" s="64" t="s">
+        <v>58</v>
       </c>
       <c r="C92" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D92" s="70">
-        <v>1001083446207</v>
+      <c r="D92" s="65">
+        <v>1001203146835</v>
       </c>
       <c r="E92" s="56"/>
       <c r="F92" s="14">
-        <f>E92*0.3</f>
+        <f>E92*0.1</f>
         <v>0</v>
       </c>
-      <c r="G92" s="14"/>
-      <c r="H92" s="15"/>
-      <c r="I92" s="16"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7089</v>
-      </c>
-      <c r="B93" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="C93" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="70">
-        <v>1001084217089</v>
-      </c>
-      <c r="E93" s="56"/>
-      <c r="F93" s="14">
-        <f>E93*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="G93" s="14"/>
-      <c r="H93" s="15"/>
-      <c r="I93" s="16"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G92" s="26"/>
+      <c r="H92" s="63"/>
+      <c r="I92" s="24"/>
+    </row>
+    <row r="93" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="35"/>
+      <c r="B93" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" s="25"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="57"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+    </row>
+    <row r="94" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A94" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7187</v>
-      </c>
-      <c r="B94" s="67" t="s">
-        <v>103</v>
+        <f t="shared" si="6"/>
+        <v>3215</v>
+      </c>
+      <c r="B94" s="64" t="s">
+        <v>54</v>
       </c>
       <c r="C94" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D94" s="70">
-        <v>1001085637187</v>
+      <c r="D94" s="65">
+        <v>1001094053215</v>
       </c>
       <c r="E94" s="56"/>
-      <c r="F94" s="14"/>
+      <c r="F94" s="14">
+        <f>E94*0.4</f>
+        <v>0</v>
+      </c>
       <c r="G94" s="14"/>
       <c r="H94" s="15"/>
-      <c r="I94" s="16"/>
-    </row>
-    <row r="95" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I94" s="24"/>
+    </row>
+    <row r="95" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="64" t="str">
-        <f t="shared" si="2"/>
-        <v>7104</v>
-      </c>
-      <c r="B95" s="67" t="s">
-        <v>97</v>
+        <f t="shared" si="6"/>
+        <v>5452</v>
+      </c>
+      <c r="B95" s="64" t="s">
+        <v>55</v>
       </c>
       <c r="C95" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D95" s="70">
-        <v>1001223297104</v>
+        <v>18</v>
+      </c>
+      <c r="D95" s="65">
+        <v>1001092485452</v>
       </c>
       <c r="E95" s="56"/>
       <c r="F95" s="14">
-        <f>E95*0.18</f>
+        <f>E95</f>
         <v>0</v>
       </c>
       <c r="G95" s="14"/>
       <c r="H95" s="15"/>
-      <c r="I95" s="16"/>
+      <c r="I95" s="24"/>
     </row>
     <row r="96" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="27"/>
-      <c r="B96" s="27" t="s">
+      <c r="A96" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="57"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
+    </row>
+    <row r="97" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>5074</v>
+      </c>
+      <c r="B97" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" s="70">
+        <v>1001080345074</v>
+      </c>
+      <c r="E97" s="56"/>
+      <c r="F97" s="14">
+        <f>E97</f>
+        <v>0</v>
+      </c>
+      <c r="G97" s="14"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="16"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>6207</v>
+      </c>
+      <c r="B98" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="C98" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" s="70">
+        <v>1001083446207</v>
+      </c>
+      <c r="E98" s="56"/>
+      <c r="F98" s="14">
+        <f>E98*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="G98" s="14"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="16"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>7089</v>
+      </c>
+      <c r="B99" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="C99" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" s="70">
+        <v>1001084217089</v>
+      </c>
+      <c r="E99" s="56"/>
+      <c r="F99" s="14">
+        <f>E99*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="G99" s="14"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="16"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>7187</v>
+      </c>
+      <c r="B100" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="C100" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" s="70">
+        <v>1001085637187</v>
+      </c>
+      <c r="E100" s="56"/>
+      <c r="F100" s="14">
+        <f>E100*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="G100" s="14"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="16"/>
+    </row>
+    <row r="101" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>7104</v>
+      </c>
+      <c r="B101" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C101" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" s="70">
+        <v>1001223297104</v>
+      </c>
+      <c r="E101" s="56"/>
+      <c r="F101" s="14">
+        <f>E101*0.18</f>
+        <v>0</v>
+      </c>
+      <c r="G101" s="14"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="16"/>
+    </row>
+    <row r="102" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="27"/>
+      <c r="B102" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="58">
-        <f>SUM(E10:E95)</f>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="58">
+        <f>SUM(E10:E101)</f>
         <v>0</v>
       </c>
-      <c r="F96" s="28">
-        <f>SUM(F10:F95)</f>
+      <c r="F102" s="28">
+        <f>SUM(F10:F101)</f>
         <v>0</v>
       </c>
-      <c r="G96" s="37"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="29"/>
-    </row>
-    <row r="97" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="30"/>
-      <c r="C97" s="31"/>
-      <c r="D97" s="31"/>
-      <c r="F97" s="61"/>
-      <c r="G97" s="33"/>
-      <c r="H97" s="33"/>
-      <c r="I97" s="60"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B98" s="30"/>
-      <c r="C98" s="31"/>
-      <c r="D98" s="31"/>
-      <c r="F98" s="61"/>
-      <c r="G98" s="33"/>
-      <c r="H98" s="33"/>
-      <c r="I98" s="34"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B99" s="30"/>
-      <c r="C99" s="31"/>
-      <c r="D99" s="31"/>
-      <c r="F99" s="61"/>
-      <c r="G99" s="33"/>
-      <c r="H99" s="33"/>
-      <c r="I99" s="34"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B100" s="30"/>
-      <c r="C100" s="31"/>
-      <c r="D100" s="31"/>
-      <c r="F100" s="32"/>
-      <c r="G100" s="33"/>
-      <c r="H100" s="33"/>
-      <c r="I100" s="34"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B101" s="30"/>
-      <c r="C101" s="31"/>
-      <c r="D101" s="31"/>
-      <c r="F101" s="32"/>
-      <c r="G101" s="33"/>
-      <c r="H101" s="33"/>
-      <c r="I101" s="34"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B102" s="30"/>
-      <c r="C102" s="31"/>
-      <c r="D102" s="31"/>
-      <c r="F102" s="32"/>
-      <c r="G102" s="33"/>
-      <c r="H102" s="33"/>
-      <c r="I102" s="34"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G102" s="37"/>
+      <c r="H102" s="28"/>
+      <c r="I102" s="29"/>
+    </row>
+    <row r="103" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B103" s="30"/>
       <c r="C103" s="31"/>
       <c r="D103" s="31"/>
-      <c r="F103" s="32"/>
+      <c r="F103" s="61"/>
       <c r="G103" s="33"/>
       <c r="H103" s="33"/>
-      <c r="I103" s="34"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I103" s="60"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B104" s="30"/>
       <c r="C104" s="31"/>
       <c r="D104" s="31"/>
-      <c r="F104" s="32"/>
+      <c r="F104" s="61"/>
       <c r="G104" s="33"/>
       <c r="H104" s="33"/>
       <c r="I104" s="34"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B105" s="30"/>
       <c r="C105" s="31"/>
       <c r="D105" s="31"/>
-      <c r="F105" s="32"/>
+      <c r="F105" s="61"/>
       <c r="G105" s="33"/>
       <c r="H105" s="33"/>
       <c r="I105" s="34"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B106" s="30"/>
       <c r="C106" s="31"/>
       <c r="D106" s="31"/>
@@ -3851,7 +3957,7 @@
       <c r="H106" s="33"/>
       <c r="I106" s="34"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B107" s="30"/>
       <c r="C107" s="31"/>
       <c r="D107" s="31"/>
@@ -3860,7 +3966,7 @@
       <c r="H107" s="33"/>
       <c r="I107" s="34"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B108" s="30"/>
       <c r="C108" s="31"/>
       <c r="D108" s="31"/>
@@ -3869,7 +3975,7 @@
       <c r="H108" s="33"/>
       <c r="I108" s="34"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B109" s="30"/>
       <c r="C109" s="31"/>
       <c r="D109" s="31"/>
@@ -3878,7 +3984,7 @@
       <c r="H109" s="33"/>
       <c r="I109" s="34"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B110" s="30"/>
       <c r="C110" s="31"/>
       <c r="D110" s="31"/>
@@ -3887,7 +3993,7 @@
       <c r="H110" s="33"/>
       <c r="I110" s="34"/>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B111" s="30"/>
       <c r="C111" s="31"/>
       <c r="D111" s="31"/>
@@ -3896,7 +4002,7 @@
       <c r="H111" s="33"/>
       <c r="I111" s="34"/>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B112" s="30"/>
       <c r="C112" s="31"/>
       <c r="D112" s="31"/>
@@ -17477,8 +17583,62 @@
       <c r="H1620" s="33"/>
       <c r="I1620" s="34"/>
     </row>
+    <row r="1621" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1621" s="30"/>
+      <c r="C1621" s="31"/>
+      <c r="D1621" s="31"/>
+      <c r="F1621" s="32"/>
+      <c r="G1621" s="33"/>
+      <c r="H1621" s="33"/>
+      <c r="I1621" s="34"/>
+    </row>
+    <row r="1622" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1622" s="30"/>
+      <c r="C1622" s="31"/>
+      <c r="D1622" s="31"/>
+      <c r="F1622" s="32"/>
+      <c r="G1622" s="33"/>
+      <c r="H1622" s="33"/>
+      <c r="I1622" s="34"/>
+    </row>
+    <row r="1623" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1623" s="30"/>
+      <c r="C1623" s="31"/>
+      <c r="D1623" s="31"/>
+      <c r="F1623" s="32"/>
+      <c r="G1623" s="33"/>
+      <c r="H1623" s="33"/>
+      <c r="I1623" s="34"/>
+    </row>
+    <row r="1624" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1624" s="30"/>
+      <c r="C1624" s="31"/>
+      <c r="D1624" s="31"/>
+      <c r="F1624" s="32"/>
+      <c r="G1624" s="33"/>
+      <c r="H1624" s="33"/>
+      <c r="I1624" s="34"/>
+    </row>
+    <row r="1625" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1625" s="30"/>
+      <c r="C1625" s="31"/>
+      <c r="D1625" s="31"/>
+      <c r="F1625" s="32"/>
+      <c r="G1625" s="33"/>
+      <c r="H1625" s="33"/>
+      <c r="I1625" s="34"/>
+    </row>
+    <row r="1626" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1626" s="30"/>
+      <c r="C1626" s="31"/>
+      <c r="D1626" s="31"/>
+      <c r="F1626" s="32"/>
+      <c r="G1626" s="33"/>
+      <c r="H1626" s="33"/>
+      <c r="I1626" s="34"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:I98"/>
+  <autoFilter ref="A9:I104" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="3">
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="F3:I3"/>
@@ -17487,7 +17647,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F54 F71 F73 F21" formula="1"/>
+    <ignoredError sqref="F21" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
